--- a/data/Прикладна_математика_Форма 44 ПМ денна 2019- 2020.xlsx
+++ b/data/Прикладна_математика_Форма 44 ПМ денна 2019- 2020.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12795" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -152,12 +152,6 @@
     <t>іспит</t>
   </si>
   <si>
-    <t>Нечипоренко Нина Олександрівна</t>
-  </si>
-  <si>
-    <t>Щербина Окснана Анатоліївна</t>
-  </si>
-  <si>
     <t>Вища математика. Математичний аналіз</t>
   </si>
   <si>
@@ -173,16 +167,10 @@
     <t>КНТ-139</t>
   </si>
   <si>
-    <t>Мастиновський Юрий Вікторович</t>
-  </si>
-  <si>
     <t>Компьютерна дискретна математика</t>
   </si>
   <si>
     <t>КНТ-119;КНТ- 129;КНТ-139</t>
-  </si>
-  <si>
-    <t>Левицька Тетяна Ігоровна</t>
   </si>
   <si>
     <t>КНТ-219</t>
@@ -354,12 +342,24 @@
   <si>
     <t>ФЕУ-519</t>
   </si>
+  <si>
+    <t>Нечипоренко Ніна Олександрівна</t>
+  </si>
+  <si>
+    <t>Щербина Оксана Анатоліївна</t>
+  </si>
+  <si>
+    <t>Мастиновський Юрій Вікторович</t>
+  </si>
+  <si>
+    <t>Левицька Тетяна Ігорівна</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +476,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -513,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -568,6 +575,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -595,6 +605,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -602,6 +615,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -867,17 +885,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" style="1" customWidth="1"/>
@@ -890,7 +908,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
@@ -899,34 +917,34 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1"/>
-    <row r="4" spans="1:13" ht="30">
-      <c r="A4" s="22" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -937,20 +955,20 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="25.5">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -961,20 +979,20 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -985,33 +1003,33 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75">
-      <c r="A10" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75">
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75">
+      <c r="B11" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1022,7 +1040,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1">
+    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -1051,7 +1069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -1080,7 +1098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="51.75" customHeight="1">
+    <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -1100,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>21</v>
@@ -1109,7 +1127,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -1138,7 +1156,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="32.25" customHeight="1">
+    <row r="17" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>3</v>
       </c>
@@ -1167,7 +1185,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -1196,7 +1214,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="51" customHeight="1">
+    <row r="19" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>5</v>
       </c>
@@ -1204,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>18</v>
@@ -1218,14 +1236,14 @@
       <c r="G19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>29</v>
+      <c r="H19" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="I19" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>6</v>
       </c>
@@ -1233,7 +1251,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>23</v>
@@ -1248,13 +1266,13 @@
         <v>28</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I20" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>7</v>
       </c>
@@ -1262,7 +1280,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>23</v>
@@ -1277,13 +1295,13 @@
         <v>28</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I21" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>8</v>
       </c>
@@ -1291,7 +1309,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>23</v>
@@ -1306,21 +1324,21 @@
         <v>28</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I22" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>9</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>18</v>
@@ -1334,22 +1352,22 @@
       <c r="G23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>36</v>
+      <c r="H23" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="I23" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>10</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>23</v>
@@ -1363,22 +1381,22 @@
       <c r="G24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>36</v>
+      <c r="H24" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="I24" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>11</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>23</v>
@@ -1392,22 +1410,22 @@
       <c r="G25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>36</v>
+      <c r="H25" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="I25" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>12</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>23</v>
@@ -1421,22 +1439,22 @@
       <c r="G26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>36</v>
+      <c r="H26" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="I26" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>13</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>37</v>
+      <c r="B27" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>18</v>
@@ -1450,25 +1468,25 @@
       <c r="G27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>39</v>
+      <c r="H27" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="I27" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>14</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>37</v>
+      <c r="B28" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E28" s="14">
         <v>30</v>
@@ -1479,25 +1497,25 @@
       <c r="G28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>39</v>
+      <c r="H28" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="I28" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>15</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>37</v>
+      <c r="B29" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E29" s="14">
         <v>30</v>
@@ -1508,25 +1526,25 @@
       <c r="G29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>39</v>
+      <c r="H29" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="I29" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>16</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>37</v>
+      <c r="B30" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E30" s="14">
         <v>30</v>
@@ -1537,14 +1555,14 @@
       <c r="G30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>39</v>
+      <c r="H30" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="I30" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>17</v>
       </c>
@@ -1552,7 +1570,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>18</v>
@@ -1567,13 +1585,13 @@
         <v>16</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I31" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>18</v>
       </c>
@@ -1581,7 +1599,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>23</v>
@@ -1596,13 +1614,13 @@
         <v>16</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I32" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>19</v>
       </c>
@@ -1610,7 +1628,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>23</v>
@@ -1625,21 +1643,21 @@
         <v>16</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I33" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>20</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>18</v>
@@ -1653,25 +1671,25 @@
       <c r="G34" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>39</v>
+      <c r="H34" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="I34" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>21</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E35" s="14">
         <v>30</v>
@@ -1682,25 +1700,25 @@
       <c r="G35" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>39</v>
+      <c r="H35" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="I35" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>22</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C36" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="E36" s="14">
         <v>30</v>
@@ -1711,14 +1729,14 @@
       <c r="G36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>39</v>
+      <c r="H36" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="I36" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>23</v>
       </c>
@@ -1726,7 +1744,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>18</v>
@@ -1741,13 +1759,13 @@
         <v>16</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I37" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>24</v>
       </c>
@@ -1755,7 +1773,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>23</v>
@@ -1770,13 +1788,13 @@
         <v>16</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I38" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>25</v>
       </c>
@@ -1784,7 +1802,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>23</v>
@@ -1799,21 +1817,21 @@
         <v>16</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I39" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>26</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>18</v>
@@ -1828,51 +1846,51 @@
         <v>28</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I40" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>27</v>
       </c>
       <c r="B41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="14">
+        <v>30</v>
+      </c>
+      <c r="F41" s="13">
+        <v>2</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="13">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>28</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="14">
-        <v>30</v>
-      </c>
-      <c r="F41" s="13">
-        <v>2</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" s="13">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="13">
-        <v>28</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="D42" s="13" t="s">
         <v>23</v>
       </c>
@@ -1886,21 +1904,21 @@
         <v>28</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I42" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>29</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>18</v>
@@ -1915,21 +1933,21 @@
         <v>28</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I43" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>30</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>23</v>
@@ -1944,21 +1962,21 @@
         <v>28</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I44" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>31</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>18</v>
@@ -1973,21 +1991,21 @@
         <v>28</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I45" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>32</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>23</v>
@@ -2002,21 +2020,21 @@
         <v>28</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I46" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="30">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>33</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>18</v>
@@ -2037,15 +2055,15 @@
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="30">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>34</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>23</v>
@@ -2066,15 +2084,15 @@
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>35</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>18</v>
@@ -2088,22 +2106,22 @@
       <c r="G49" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>29</v>
+      <c r="H49" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="I49" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>36</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>23</v>
@@ -2117,22 +2135,22 @@
       <c r="G50" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="13" t="s">
-        <v>29</v>
+      <c r="H50" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="I50" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>37</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>54</v>
+      <c r="B51" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>18</v>
@@ -2147,21 +2165,21 @@
         <v>16</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I51" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="30">
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>38</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>54</v>
+      <c r="B52" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>23</v>
@@ -2176,21 +2194,21 @@
         <v>16</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I52" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>39</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>18</v>
@@ -2205,21 +2223,21 @@
         <v>28</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I53" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>40</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>23</v>
@@ -2234,13 +2252,13 @@
         <v>28</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I54" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>41</v>
       </c>
@@ -2248,7 +2266,7 @@
         <v>19</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>18</v>
@@ -2263,13 +2281,13 @@
         <v>28</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I55" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>42</v>
       </c>
@@ -2277,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>23</v>
@@ -2292,21 +2310,21 @@
         <v>28</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I56" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>43</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>18</v>
@@ -2321,21 +2339,21 @@
         <v>28</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I57" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>44</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>23</v>
@@ -2350,21 +2368,21 @@
         <v>28</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I58" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>45</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>23</v>
@@ -2379,21 +2397,21 @@
         <v>28</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I59" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>46</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>18</v>
@@ -2408,21 +2426,21 @@
         <v>16</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I60" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>47</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>23</v>
@@ -2437,21 +2455,21 @@
         <v>16</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I61" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>48</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>18</v>
@@ -2466,21 +2484,21 @@
         <v>28</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I62" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>49</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>23</v>
@@ -2495,21 +2513,21 @@
         <v>28</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I63" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>50</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>23</v>
@@ -2524,13 +2542,13 @@
         <v>28</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I64" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>51</v>
       </c>
@@ -2538,7 +2556,7 @@
         <v>19</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>18</v>
@@ -2553,13 +2571,13 @@
         <v>28</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I65" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>52</v>
       </c>
@@ -2567,7 +2585,7 @@
         <v>19</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>23</v>
@@ -2582,13 +2600,13 @@
         <v>28</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I66" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>53</v>
       </c>
@@ -2596,7 +2614,7 @@
         <v>19</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>23</v>
@@ -2611,21 +2629,21 @@
         <v>28</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I67" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>54</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>18</v>
@@ -2640,21 +2658,21 @@
         <v>28</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I68" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>55</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>23</v>
@@ -2669,21 +2687,21 @@
         <v>28</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I69" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>56</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>23</v>
@@ -2696,21 +2714,21 @@
         <v>28</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I70" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>57</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>23</v>
@@ -2723,52 +2741,52 @@
         <v>28</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I71" s="13">
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="9" customFormat="1" ht="18.75">
+    <row r="73" spans="1:9" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H73" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I73" s="27"/>
-    </row>
-    <row r="74" spans="1:9" ht="12.95" customHeight="1">
-      <c r="H74" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I74" s="28"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="20" t="s">
+      <c r="H73" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73" s="28"/>
+    </row>
+    <row r="74" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I74" s="29"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="20" t="s">
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2785,6 +2803,6 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Прикладна_математика_Форма 44 ПМ денна 2019- 2020.xlsx
+++ b/data/Прикладна_математика_Форма 44 ПМ денна 2019- 2020.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$77</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="88">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -484,12 +484,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -520,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,6 +584,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -605,7 +620,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -878,7 +899,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -889,10 +910,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,48 +924,50 @@
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="45.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="11" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -954,21 +977,23 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -977,22 +1002,24 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1001,35 +1028,38 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="I9" s="21"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1038,9 +1068,10 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="22"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -1068,8 +1099,11 @@
       <c r="I13" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -1097,8 +1131,11 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -1126,8 +1163,9 @@
       <c r="I15" s="14">
         <v>352</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -1155,8 +1193,9 @@
       <c r="I16" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>3</v>
       </c>
@@ -1184,8 +1223,9 @@
       <c r="I17" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -1213,8 +1253,9 @@
       <c r="I18" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>5</v>
       </c>
@@ -1236,14 +1277,15 @@
       <c r="G19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="23" t="s">
         <v>84</v>
       </c>
       <c r="I19" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>6</v>
       </c>
@@ -1271,8 +1313,9 @@
       <c r="I20" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>7</v>
       </c>
@@ -1300,8 +1343,9 @@
       <c r="I21" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>8</v>
       </c>
@@ -1329,8 +1373,9 @@
       <c r="I22" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>9</v>
       </c>
@@ -1352,14 +1397,15 @@
       <c r="G23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="23" t="s">
         <v>86</v>
       </c>
       <c r="I23" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>10</v>
       </c>
@@ -1381,14 +1427,15 @@
       <c r="G24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="23" t="s">
         <v>86</v>
       </c>
       <c r="I24" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>11</v>
       </c>
@@ -1410,14 +1457,15 @@
       <c r="G25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="23" t="s">
         <v>86</v>
       </c>
       <c r="I25" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>12</v>
       </c>
@@ -1439,14 +1487,15 @@
       <c r="G26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="23" t="s">
         <v>86</v>
       </c>
       <c r="I26" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>13</v>
       </c>
@@ -1468,14 +1517,15 @@
       <c r="G27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="23" t="s">
         <v>87</v>
       </c>
       <c r="I27" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>14</v>
       </c>
@@ -1497,14 +1547,15 @@
       <c r="G28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="23" t="s">
         <v>87</v>
       </c>
       <c r="I28" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>15</v>
       </c>
@@ -1526,14 +1577,15 @@
       <c r="G29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="23" t="s">
         <v>87</v>
       </c>
       <c r="I29" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>16</v>
       </c>
@@ -1555,14 +1607,15 @@
       <c r="G30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="H30" s="23" t="s">
         <v>87</v>
       </c>
       <c r="I30" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>17</v>
       </c>
@@ -1590,8 +1643,9 @@
       <c r="I31" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>18</v>
       </c>
@@ -1619,8 +1673,9 @@
       <c r="I32" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>19</v>
       </c>
@@ -1648,8 +1703,9 @@
       <c r="I33" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>20</v>
       </c>
@@ -1671,14 +1727,15 @@
       <c r="G34" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="23" t="s">
         <v>87</v>
       </c>
       <c r="I34" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>21</v>
       </c>
@@ -1700,14 +1757,15 @@
       <c r="G35" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="30" t="s">
+      <c r="H35" s="23" t="s">
         <v>87</v>
       </c>
       <c r="I35" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>22</v>
       </c>
@@ -1729,14 +1787,15 @@
       <c r="G36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="23" t="s">
         <v>87</v>
       </c>
       <c r="I36" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="35"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>23</v>
       </c>
@@ -1764,8 +1823,9 @@
       <c r="I37" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>24</v>
       </c>
@@ -1793,8 +1853,9 @@
       <c r="I38" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>25</v>
       </c>
@@ -1822,8 +1883,9 @@
       <c r="I39" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>26</v>
       </c>
@@ -1851,8 +1913,9 @@
       <c r="I40" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>27</v>
       </c>
@@ -1880,8 +1943,9 @@
       <c r="I41" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>28</v>
       </c>
@@ -1909,8 +1973,9 @@
       <c r="I42" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>29</v>
       </c>
@@ -1938,8 +2003,9 @@
       <c r="I43" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>30</v>
       </c>
@@ -1967,8 +2033,9 @@
       <c r="I44" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>31</v>
       </c>
@@ -1996,8 +2063,9 @@
       <c r="I45" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>32</v>
       </c>
@@ -2025,8 +2093,9 @@
       <c r="I46" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>33</v>
       </c>
@@ -2054,8 +2123,9 @@
       <c r="I47" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J47" s="35"/>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>34</v>
       </c>
@@ -2083,8 +2153,9 @@
       <c r="I48" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>35</v>
       </c>
@@ -2106,14 +2177,15 @@
       <c r="G49" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H49" s="23" t="s">
         <v>84</v>
       </c>
       <c r="I49" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>36</v>
       </c>
@@ -2135,14 +2207,15 @@
       <c r="G50" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="30" t="s">
+      <c r="H50" s="23" t="s">
         <v>84</v>
       </c>
       <c r="I50" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>37</v>
       </c>
@@ -2170,8 +2243,9 @@
       <c r="I51" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J51" s="35"/>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>38</v>
       </c>
@@ -2199,8 +2273,9 @@
       <c r="I52" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="35"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>39</v>
       </c>
@@ -2228,8 +2303,9 @@
       <c r="I53" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>40</v>
       </c>
@@ -2257,8 +2333,9 @@
       <c r="I54" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="35"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>41</v>
       </c>
@@ -2286,8 +2363,9 @@
       <c r="I55" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="35"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>42</v>
       </c>
@@ -2315,8 +2393,9 @@
       <c r="I56" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>43</v>
       </c>
@@ -2344,8 +2423,9 @@
       <c r="I57" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="35"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>44</v>
       </c>
@@ -2373,8 +2453,9 @@
       <c r="I58" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="35"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>45</v>
       </c>
@@ -2402,8 +2483,9 @@
       <c r="I59" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>46</v>
       </c>
@@ -2431,8 +2513,9 @@
       <c r="I60" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="35"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>47</v>
       </c>
@@ -2460,8 +2543,9 @@
       <c r="I61" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="35"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>48</v>
       </c>
@@ -2489,8 +2573,9 @@
       <c r="I62" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="35"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>49</v>
       </c>
@@ -2518,8 +2603,9 @@
       <c r="I63" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="35"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>50</v>
       </c>
@@ -2547,8 +2633,9 @@
       <c r="I64" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="35"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>51</v>
       </c>
@@ -2576,8 +2663,9 @@
       <c r="I65" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="35"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>52</v>
       </c>
@@ -2605,8 +2693,9 @@
       <c r="I66" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="35"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>53</v>
       </c>
@@ -2634,8 +2723,9 @@
       <c r="I67" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="35"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>54</v>
       </c>
@@ -2663,8 +2753,9 @@
       <c r="I68" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="35"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>55</v>
       </c>
@@ -2692,8 +2783,9 @@
       <c r="I69" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="35"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>56</v>
       </c>
@@ -2719,8 +2811,9 @@
       <c r="I70" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="35"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>57</v>
       </c>
@@ -2746,60 +2839,65 @@
       <c r="I71" s="13">
         <v>352</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J71" s="35"/>
+    </row>
+    <row r="73" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H73" s="28" t="s">
+      <c r="H73" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I73" s="28"/>
-    </row>
-    <row r="74" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H74" s="29" t="s">
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+    </row>
+    <row r="74" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I74" s="29"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="21" t="s">
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="A76:J76"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/data/Прикладна_математика_Форма 44 ПМ денна 2019- 2020.xlsx
+++ b/data/Прикладна_математика_Форма 44 ПМ денна 2019- 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="89">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>Левицька Тетяна Ігорівна</t>
+  </si>
+  <si>
+    <t>Пропозиції щодо аудиторій</t>
   </si>
 </sst>
 </file>
@@ -593,6 +596,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -619,15 +631,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -899,7 +902,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -913,7 +916,7 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,33 +942,33 @@
       <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -980,18 +983,18 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -1006,18 +1009,18 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -1032,32 +1035,32 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1097,9 +1100,9 @@
         <v>13</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1131,7 +1134,7 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="25">
         <v>10</v>
       </c>
     </row>
@@ -1163,7 +1166,7 @@
       <c r="I15" s="14">
         <v>352</v>
       </c>
-      <c r="J15" s="35"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -1193,7 +1196,7 @@
       <c r="I16" s="13">
         <v>352</v>
       </c>
-      <c r="J16" s="35"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -1223,7 +1226,7 @@
       <c r="I17" s="13">
         <v>352</v>
       </c>
-      <c r="J17" s="35"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -1253,7 +1256,7 @@
       <c r="I18" s="13">
         <v>352</v>
       </c>
-      <c r="J18" s="35"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -1283,7 +1286,7 @@
       <c r="I19" s="13">
         <v>352</v>
       </c>
-      <c r="J19" s="35"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -1313,7 +1316,7 @@
       <c r="I20" s="13">
         <v>352</v>
       </c>
-      <c r="J20" s="35"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -1343,7 +1346,7 @@
       <c r="I21" s="13">
         <v>352</v>
       </c>
-      <c r="J21" s="35"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -1373,7 +1376,7 @@
       <c r="I22" s="13">
         <v>352</v>
       </c>
-      <c r="J22" s="35"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -1403,7 +1406,7 @@
       <c r="I23" s="13">
         <v>352</v>
       </c>
-      <c r="J23" s="35"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -1433,7 +1436,7 @@
       <c r="I24" s="13">
         <v>352</v>
       </c>
-      <c r="J24" s="35"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -1463,7 +1466,7 @@
       <c r="I25" s="13">
         <v>352</v>
       </c>
-      <c r="J25" s="35"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -1493,7 +1496,7 @@
       <c r="I26" s="13">
         <v>352</v>
       </c>
-      <c r="J26" s="35"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -1523,7 +1526,7 @@
       <c r="I27" s="13">
         <v>352</v>
       </c>
-      <c r="J27" s="35"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -1553,7 +1556,7 @@
       <c r="I28" s="13">
         <v>352</v>
       </c>
-      <c r="J28" s="35"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
@@ -1583,7 +1586,7 @@
       <c r="I29" s="13">
         <v>352</v>
       </c>
-      <c r="J29" s="35"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -1613,7 +1616,7 @@
       <c r="I30" s="13">
         <v>352</v>
       </c>
-      <c r="J30" s="35"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
@@ -1643,7 +1646,7 @@
       <c r="I31" s="13">
         <v>352</v>
       </c>
-      <c r="J31" s="35"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -1673,7 +1676,7 @@
       <c r="I32" s="13">
         <v>352</v>
       </c>
-      <c r="J32" s="35"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
@@ -1703,7 +1706,7 @@
       <c r="I33" s="13">
         <v>352</v>
       </c>
-      <c r="J33" s="35"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
@@ -1733,7 +1736,7 @@
       <c r="I34" s="13">
         <v>352</v>
       </c>
-      <c r="J34" s="35"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -1763,7 +1766,7 @@
       <c r="I35" s="13">
         <v>352</v>
       </c>
-      <c r="J35" s="35"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
@@ -1793,7 +1796,7 @@
       <c r="I36" s="13">
         <v>352</v>
       </c>
-      <c r="J36" s="35"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
@@ -1823,7 +1826,7 @@
       <c r="I37" s="13">
         <v>352</v>
       </c>
-      <c r="J37" s="35"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
@@ -1853,7 +1856,7 @@
       <c r="I38" s="13">
         <v>352</v>
       </c>
-      <c r="J38" s="35"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
@@ -1883,7 +1886,7 @@
       <c r="I39" s="13">
         <v>352</v>
       </c>
-      <c r="J39" s="35"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
@@ -1913,7 +1916,7 @@
       <c r="I40" s="13">
         <v>352</v>
       </c>
-      <c r="J40" s="35"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
@@ -1943,7 +1946,7 @@
       <c r="I41" s="13">
         <v>352</v>
       </c>
-      <c r="J41" s="35"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
@@ -1973,7 +1976,7 @@
       <c r="I42" s="13">
         <v>352</v>
       </c>
-      <c r="J42" s="35"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
@@ -2003,7 +2006,7 @@
       <c r="I43" s="13">
         <v>352</v>
       </c>
-      <c r="J43" s="35"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
@@ -2033,7 +2036,7 @@
       <c r="I44" s="13">
         <v>352</v>
       </c>
-      <c r="J44" s="35"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
@@ -2063,7 +2066,7 @@
       <c r="I45" s="13">
         <v>352</v>
       </c>
-      <c r="J45" s="35"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
@@ -2093,7 +2096,7 @@
       <c r="I46" s="13">
         <v>352</v>
       </c>
-      <c r="J46" s="35"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
@@ -2123,7 +2126,7 @@
       <c r="I47" s="13">
         <v>352</v>
       </c>
-      <c r="J47" s="35"/>
+      <c r="J47" s="26"/>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
@@ -2153,7 +2156,7 @@
       <c r="I48" s="13">
         <v>352</v>
       </c>
-      <c r="J48" s="35"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
@@ -2183,7 +2186,7 @@
       <c r="I49" s="13">
         <v>352</v>
       </c>
-      <c r="J49" s="35"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
@@ -2213,7 +2216,7 @@
       <c r="I50" s="13">
         <v>352</v>
       </c>
-      <c r="J50" s="35"/>
+      <c r="J50" s="26"/>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
@@ -2243,7 +2246,7 @@
       <c r="I51" s="13">
         <v>352</v>
       </c>
-      <c r="J51" s="35"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
@@ -2273,7 +2276,7 @@
       <c r="I52" s="13">
         <v>352</v>
       </c>
-      <c r="J52" s="35"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
@@ -2303,7 +2306,7 @@
       <c r="I53" s="13">
         <v>352</v>
       </c>
-      <c r="J53" s="35"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
@@ -2333,7 +2336,7 @@
       <c r="I54" s="13">
         <v>352</v>
       </c>
-      <c r="J54" s="35"/>
+      <c r="J54" s="26"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
@@ -2363,7 +2366,7 @@
       <c r="I55" s="13">
         <v>352</v>
       </c>
-      <c r="J55" s="35"/>
+      <c r="J55" s="26"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
@@ -2393,7 +2396,7 @@
       <c r="I56" s="13">
         <v>352</v>
       </c>
-      <c r="J56" s="35"/>
+      <c r="J56" s="26"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
@@ -2423,7 +2426,7 @@
       <c r="I57" s="13">
         <v>352</v>
       </c>
-      <c r="J57" s="35"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
@@ -2453,7 +2456,7 @@
       <c r="I58" s="13">
         <v>352</v>
       </c>
-      <c r="J58" s="35"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
@@ -2483,7 +2486,7 @@
       <c r="I59" s="13">
         <v>352</v>
       </c>
-      <c r="J59" s="35"/>
+      <c r="J59" s="26"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
@@ -2513,7 +2516,7 @@
       <c r="I60" s="13">
         <v>352</v>
       </c>
-      <c r="J60" s="35"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
@@ -2543,7 +2546,7 @@
       <c r="I61" s="13">
         <v>352</v>
       </c>
-      <c r="J61" s="35"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
@@ -2573,7 +2576,7 @@
       <c r="I62" s="13">
         <v>352</v>
       </c>
-      <c r="J62" s="35"/>
+      <c r="J62" s="26"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
@@ -2603,7 +2606,7 @@
       <c r="I63" s="13">
         <v>352</v>
       </c>
-      <c r="J63" s="35"/>
+      <c r="J63" s="26"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
@@ -2633,7 +2636,7 @@
       <c r="I64" s="13">
         <v>352</v>
       </c>
-      <c r="J64" s="35"/>
+      <c r="J64" s="26"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
@@ -2663,7 +2666,7 @@
       <c r="I65" s="13">
         <v>352</v>
       </c>
-      <c r="J65" s="35"/>
+      <c r="J65" s="26"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
@@ -2693,7 +2696,7 @@
       <c r="I66" s="13">
         <v>352</v>
       </c>
-      <c r="J66" s="35"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
@@ -2723,7 +2726,7 @@
       <c r="I67" s="13">
         <v>352</v>
       </c>
-      <c r="J67" s="35"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
@@ -2753,7 +2756,7 @@
       <c r="I68" s="13">
         <v>352</v>
       </c>
-      <c r="J68" s="35"/>
+      <c r="J68" s="26"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
@@ -2783,7 +2786,7 @@
       <c r="I69" s="13">
         <v>352</v>
       </c>
-      <c r="J69" s="35"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
@@ -2811,7 +2814,7 @@
       <c r="I70" s="13">
         <v>352</v>
       </c>
-      <c r="J70" s="35"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
@@ -2839,52 +2842,52 @@
       <c r="I71" s="13">
         <v>352</v>
       </c>
-      <c r="J71" s="35"/>
+      <c r="J71" s="26"/>
     </row>
     <row r="73" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H73" s="31" t="s">
+      <c r="H73" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
     </row>
     <row r="74" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H74" s="32" t="s">
+      <c r="H74" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
